--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb2-Ephb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb2-Ephb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.969508</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H2">
-        <v>116.908524</v>
+        <v>113.948327</v>
       </c>
       <c r="I2">
-        <v>0.688733638790647</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J2">
-        <v>0.6887336387906469</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.466179</v>
+        <v>49.146613</v>
       </c>
       <c r="N2">
-        <v>121.398537</v>
+        <v>147.439839</v>
       </c>
       <c r="O2">
-        <v>0.7951624315361971</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="P2">
-        <v>0.7951624315361973</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="Q2">
-        <v>1576.947086269932</v>
+        <v>1866.724776355484</v>
       </c>
       <c r="R2">
-        <v>14192.52377642939</v>
+        <v>16800.52298719935</v>
       </c>
       <c r="S2">
-        <v>0.5476551149015437</v>
+        <v>0.5732775280510436</v>
       </c>
       <c r="T2">
-        <v>0.5476551149015437</v>
+        <v>0.5732775280510437</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.969508</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H3">
-        <v>116.908524</v>
+        <v>113.948327</v>
       </c>
       <c r="I3">
-        <v>0.688733638790647</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J3">
-        <v>0.6887336387906469</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>24.434749</v>
       </c>
       <c r="O3">
-        <v>0.1600480113596151</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="P3">
-        <v>0.1600480113596152</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="Q3">
-        <v>317.4033822111639</v>
+        <v>309.3665299127692</v>
       </c>
       <c r="R3">
-        <v>2856.630439900476</v>
+        <v>2784.298769214923</v>
       </c>
       <c r="S3">
-        <v>0.1102304492449145</v>
+        <v>0.09500751357486023</v>
       </c>
       <c r="T3">
-        <v>0.1102304492449146</v>
+        <v>0.09500751357486024</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.969508</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H4">
-        <v>116.908524</v>
+        <v>113.948327</v>
       </c>
       <c r="I4">
-        <v>0.688733638790647</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J4">
-        <v>0.6887336387906469</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01385433333333333</v>
+        <v>2.534635</v>
       </c>
       <c r="N4">
-        <v>0.041563</v>
+        <v>7.603904999999999</v>
       </c>
       <c r="O4">
-        <v>0.0002722383395933261</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="P4">
-        <v>0.0002722383395933261</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="Q4">
-        <v>0.539896553668</v>
+        <v>96.27247260188165</v>
       </c>
       <c r="R4">
-        <v>4.859068983012</v>
+        <v>866.4522534169348</v>
       </c>
       <c r="S4">
-        <v>0.0001874997022464354</v>
+        <v>0.02956560378457121</v>
       </c>
       <c r="T4">
-        <v>0.0001874997022464353</v>
+        <v>0.02956560378457121</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.969508</v>
+        <v>9.685730333333334</v>
       </c>
       <c r="H5">
-        <v>116.908524</v>
+        <v>29.057191</v>
       </c>
       <c r="I5">
-        <v>0.688733638790647</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J5">
-        <v>0.6887336387906469</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.265506666666667</v>
+        <v>49.146613</v>
       </c>
       <c r="N5">
-        <v>6.79652</v>
+        <v>147.439839</v>
       </c>
       <c r="O5">
-        <v>0.04451731876459429</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="P5">
-        <v>0.0445173187645943</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="Q5">
-        <v>88.28568017071998</v>
+        <v>476.0208403146944</v>
       </c>
       <c r="R5">
-        <v>794.5711215364801</v>
+        <v>4284.18756283225</v>
       </c>
       <c r="S5">
-        <v>0.03066057494194218</v>
+        <v>0.1461876191353563</v>
       </c>
       <c r="T5">
-        <v>0.03066057494194217</v>
+        <v>0.1461876191353563</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>29.057191</v>
       </c>
       <c r="I6">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J6">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>40.466179</v>
+        <v>8.144916333333333</v>
       </c>
       <c r="N6">
-        <v>121.398537</v>
+        <v>24.434749</v>
       </c>
       <c r="O6">
-        <v>0.7951624315361971</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="P6">
-        <v>0.7951624315361973</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="Q6">
-        <v>391.9444974143964</v>
+        <v>78.88946319222877</v>
       </c>
       <c r="R6">
-        <v>3527.500476729568</v>
+        <v>710.005168730059</v>
       </c>
       <c r="S6">
-        <v>0.136117698961122</v>
+        <v>0.02422722247058359</v>
       </c>
       <c r="T6">
-        <v>0.136117698961122</v>
+        <v>0.0242272224705836</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>29.057191</v>
       </c>
       <c r="I7">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J7">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.144916333333333</v>
+        <v>2.534635</v>
       </c>
       <c r="N7">
-        <v>24.434749</v>
+        <v>7.603904999999999</v>
       </c>
       <c r="O7">
-        <v>0.1600480113596151</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="P7">
-        <v>0.1600480113596152</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="Q7">
-        <v>78.88946319222877</v>
+        <v>24.54979110342833</v>
       </c>
       <c r="R7">
-        <v>710.005168730059</v>
+        <v>220.948119930855</v>
       </c>
       <c r="S7">
-        <v>0.02739737966177118</v>
+        <v>0.007539324348295247</v>
       </c>
       <c r="T7">
-        <v>0.02739737966177118</v>
+        <v>0.007539324348295248</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.685730333333334</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H8">
-        <v>29.057191</v>
+        <v>1.702984</v>
       </c>
       <c r="I8">
-        <v>0.1711822560557247</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J8">
-        <v>0.1711822560557247</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.01385433333333333</v>
+        <v>49.146613</v>
       </c>
       <c r="N8">
-        <v>0.041563</v>
+        <v>147.439839</v>
       </c>
       <c r="O8">
-        <v>0.0002722383395933261</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="P8">
-        <v>0.0002722383395933261</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="Q8">
-        <v>0.1341893366147778</v>
+        <v>27.89863186439733</v>
       </c>
       <c r="R8">
-        <v>1.207704029533</v>
+        <v>251.087686779576</v>
       </c>
       <c r="S8">
-        <v>4.660237315645009E-05</v>
+        <v>0.008567764736295587</v>
       </c>
       <c r="T8">
-        <v>4.660237315645009E-05</v>
+        <v>0.008567764736295589</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.685730333333334</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H9">
-        <v>29.057191</v>
+        <v>1.702984</v>
       </c>
       <c r="I9">
-        <v>0.1711822560557247</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J9">
-        <v>0.1711822560557247</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.265506666666667</v>
+        <v>8.144916333333333</v>
       </c>
       <c r="N9">
-        <v>6.79652</v>
+        <v>24.434749</v>
       </c>
       <c r="O9">
-        <v>0.04451731876459429</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="P9">
-        <v>0.0445173187645943</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="Q9">
-        <v>21.94308664170222</v>
+        <v>4.623554065668444</v>
       </c>
       <c r="R9">
-        <v>197.48777977532</v>
+        <v>41.611986591016</v>
       </c>
       <c r="S9">
-        <v>0.007620575059675099</v>
+        <v>0.001419909179515815</v>
       </c>
       <c r="T9">
-        <v>0.007620575059675099</v>
+        <v>0.001419909179515815</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6067633333333333</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H10">
-        <v>1.82029</v>
+        <v>1.702984</v>
       </c>
       <c r="I10">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J10">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.466179</v>
+        <v>2.534635</v>
       </c>
       <c r="N10">
-        <v>121.398537</v>
+        <v>7.603904999999999</v>
       </c>
       <c r="O10">
-        <v>0.7951624315361971</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="P10">
-        <v>0.7951624315361973</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="Q10">
-        <v>24.55339365730334</v>
+        <v>1.438814283613333</v>
       </c>
       <c r="R10">
-        <v>220.98054291573</v>
+        <v>12.94932855252</v>
       </c>
       <c r="S10">
-        <v>0.00852710388426537</v>
+        <v>0.0004418647602914277</v>
       </c>
       <c r="T10">
-        <v>0.008527103884265369</v>
+        <v>0.0004418647602914277</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6067633333333333</v>
+        <v>5.823095333333334</v>
       </c>
       <c r="H11">
-        <v>1.82029</v>
+        <v>17.469286</v>
       </c>
       <c r="I11">
-        <v>0.01072372580252768</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="J11">
-        <v>0.01072372580252768</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,33 +1116,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.144916333333333</v>
+        <v>49.146613</v>
       </c>
       <c r="N11">
-        <v>24.434749</v>
+        <v>147.439839</v>
       </c>
       <c r="O11">
-        <v>0.1600480113596151</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="P11">
-        <v>0.1600480113596152</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="Q11">
-        <v>4.942036584134444</v>
+        <v>286.1854128094394</v>
       </c>
       <c r="R11">
-        <v>44.47832925721</v>
+        <v>2575.668715284954</v>
       </c>
       <c r="S11">
-        <v>0.001716310989060349</v>
+        <v>0.08788851366722308</v>
       </c>
       <c r="T11">
-        <v>0.001716310989060349</v>
+        <v>0.08788851366722308</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,51 +1160,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6067633333333333</v>
+        <v>5.823095333333334</v>
       </c>
       <c r="H12">
-        <v>1.82029</v>
+        <v>17.469286</v>
       </c>
       <c r="I12">
-        <v>0.01072372580252768</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="J12">
-        <v>0.01072372580252768</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.01385433333333333</v>
+        <v>8.144916333333333</v>
       </c>
       <c r="N12">
-        <v>0.041563</v>
+        <v>24.434749</v>
       </c>
       <c r="O12">
-        <v>0.0002722383395933261</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="P12">
-        <v>0.0002722383395933261</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="Q12">
-        <v>0.008406301474444445</v>
+        <v>47.42862429102378</v>
       </c>
       <c r="R12">
-        <v>0.07565671327000001</v>
+        <v>426.857618619214</v>
       </c>
       <c r="S12">
-        <v>2.919409306734245E-06</v>
+        <v>0.01456549183726161</v>
       </c>
       <c r="T12">
-        <v>2.919409306734245E-06</v>
+        <v>0.01456549183726161</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6067633333333333</v>
+        <v>5.823095333333334</v>
       </c>
       <c r="H13">
-        <v>1.82029</v>
+        <v>17.469286</v>
       </c>
       <c r="I13">
-        <v>0.01072372580252768</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="J13">
-        <v>0.01072372580252768</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.265506666666667</v>
+        <v>2.534635</v>
       </c>
       <c r="N13">
-        <v>6.79652</v>
+        <v>7.603904999999999</v>
       </c>
       <c r="O13">
-        <v>0.04451731876459429</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="P13">
-        <v>0.0445173187645943</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="Q13">
-        <v>1.374626376755556</v>
+        <v>14.75942124020333</v>
       </c>
       <c r="R13">
-        <v>12.3716373908</v>
+        <v>132.83479116183</v>
       </c>
       <c r="S13">
-        <v>0.0004773915198952296</v>
+        <v>0.004532668463621734</v>
       </c>
       <c r="T13">
-        <v>0.0004773915198952296</v>
+        <v>0.004532668463621734</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.840641000000001</v>
+        <v>0.3689676666666666</v>
       </c>
       <c r="H14">
-        <v>20.521923</v>
+        <v>1.106903</v>
       </c>
       <c r="I14">
-        <v>0.1208991288160603</v>
+        <v>0.006778975991080511</v>
       </c>
       <c r="J14">
-        <v>0.1208991288160602</v>
+        <v>0.006778975991080512</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,33 +1302,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>40.466179</v>
+        <v>49.146613</v>
       </c>
       <c r="N14">
-        <v>121.398537</v>
+        <v>147.439839</v>
       </c>
       <c r="O14">
-        <v>0.7951624315361971</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="P14">
-        <v>0.7951624315361973</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="Q14">
-        <v>276.814603180739</v>
+        <v>18.13351112317967</v>
       </c>
       <c r="R14">
-        <v>2491.331428626651</v>
+        <v>163.201600108617</v>
       </c>
       <c r="S14">
-        <v>0.09613444523998639</v>
+        <v>0.005568862942869572</v>
       </c>
       <c r="T14">
-        <v>0.09613444523998638</v>
+        <v>0.005568862942869573</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.840641000000001</v>
+        <v>0.3689676666666666</v>
       </c>
       <c r="H15">
-        <v>20.521923</v>
+        <v>1.106903</v>
       </c>
       <c r="I15">
-        <v>0.1208991288160603</v>
+        <v>0.006778975991080511</v>
       </c>
       <c r="J15">
-        <v>0.1208991288160602</v>
+        <v>0.006778975991080512</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,27 +1370,27 @@
         <v>24.434749</v>
       </c>
       <c r="O15">
-        <v>0.1600480113596151</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="P15">
-        <v>0.1600480113596152</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="Q15">
-        <v>55.71644861136967</v>
+        <v>3.005210774705222</v>
       </c>
       <c r="R15">
-        <v>501.4480375023271</v>
+        <v>27.046896972347</v>
       </c>
       <c r="S15">
-        <v>0.01934966514212038</v>
+        <v>0.0009229104504408698</v>
       </c>
       <c r="T15">
-        <v>0.01934966514212039</v>
+        <v>0.0009229104504408699</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,356 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.840641000000001</v>
+        <v>0.3689676666666666</v>
       </c>
       <c r="H16">
-        <v>20.521923</v>
+        <v>1.106903</v>
       </c>
       <c r="I16">
-        <v>0.1208991288160603</v>
+        <v>0.006778975991080511</v>
       </c>
       <c r="J16">
-        <v>0.1208991288160602</v>
+        <v>0.006778975991080512</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.01385433333333333</v>
+        <v>2.534635</v>
       </c>
       <c r="N16">
-        <v>0.041563</v>
+        <v>7.603904999999999</v>
       </c>
       <c r="O16">
-        <v>0.0002722383395933261</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="P16">
-        <v>0.0002722383395933261</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="Q16">
-        <v>0.09477252062766668</v>
+        <v>0.9351983618016665</v>
       </c>
       <c r="R16">
-        <v>0.8529526856490001</v>
+        <v>8.416785256214999</v>
       </c>
       <c r="S16">
-        <v>3.291337808716389E-05</v>
+        <v>0.0002872025977700684</v>
       </c>
       <c r="T16">
-        <v>3.291337808716389E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>6.840641000000001</v>
-      </c>
-      <c r="H17">
-        <v>20.521923</v>
-      </c>
-      <c r="I17">
-        <v>0.1208991288160603</v>
-      </c>
-      <c r="J17">
-        <v>0.1208991288160602</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>2.265506666666667</v>
-      </c>
-      <c r="N17">
-        <v>6.79652</v>
-      </c>
-      <c r="O17">
-        <v>0.04451731876459429</v>
-      </c>
-      <c r="P17">
-        <v>0.0445173187645943</v>
-      </c>
-      <c r="Q17">
-        <v>15.49751778977333</v>
-      </c>
-      <c r="R17">
-        <v>139.47766010796</v>
-      </c>
-      <c r="S17">
-        <v>0.005382105055866302</v>
-      </c>
-      <c r="T17">
-        <v>0.005382105055866301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.4787493333333333</v>
-      </c>
-      <c r="H18">
-        <v>1.436248</v>
-      </c>
-      <c r="I18">
-        <v>0.008461250535040448</v>
-      </c>
-      <c r="J18">
-        <v>0.008461250535040448</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>40.466179</v>
-      </c>
-      <c r="N18">
-        <v>121.398537</v>
-      </c>
-      <c r="O18">
-        <v>0.7951624315361971</v>
-      </c>
-      <c r="P18">
-        <v>0.7951624315361973</v>
-      </c>
-      <c r="Q18">
-        <v>19.37315621879733</v>
-      </c>
-      <c r="R18">
-        <v>174.358405969176</v>
-      </c>
-      <c r="S18">
-        <v>0.006728068549279711</v>
-      </c>
-      <c r="T18">
-        <v>0.006728068549279712</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.4787493333333333</v>
-      </c>
-      <c r="H19">
-        <v>1.436248</v>
-      </c>
-      <c r="I19">
-        <v>0.008461250535040448</v>
-      </c>
-      <c r="J19">
-        <v>0.008461250535040448</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>8.144916333333333</v>
-      </c>
-      <c r="N19">
-        <v>24.434749</v>
-      </c>
-      <c r="O19">
-        <v>0.1600480113596151</v>
-      </c>
-      <c r="P19">
-        <v>0.1600480113596152</v>
-      </c>
-      <c r="Q19">
-        <v>3.89937326463911</v>
-      </c>
-      <c r="R19">
-        <v>35.094359381752</v>
-      </c>
-      <c r="S19">
-        <v>0.001354206321748703</v>
-      </c>
-      <c r="T19">
-        <v>0.001354206321748704</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.4787493333333333</v>
-      </c>
-      <c r="H20">
-        <v>1.436248</v>
-      </c>
-      <c r="I20">
-        <v>0.008461250535040448</v>
-      </c>
-      <c r="J20">
-        <v>0.008461250535040448</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.01385433333333333</v>
-      </c>
-      <c r="N20">
-        <v>0.041563</v>
-      </c>
-      <c r="O20">
-        <v>0.0002722383395933261</v>
-      </c>
-      <c r="P20">
-        <v>0.0002722383395933261</v>
-      </c>
-      <c r="Q20">
-        <v>0.006632752847111112</v>
-      </c>
-      <c r="R20">
-        <v>0.059694775624</v>
-      </c>
-      <c r="S20">
-        <v>2.303476796542554E-06</v>
-      </c>
-      <c r="T20">
-        <v>2.303476796542554E-06</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.4787493333333333</v>
-      </c>
-      <c r="H21">
-        <v>1.436248</v>
-      </c>
-      <c r="I21">
-        <v>0.008461250535040448</v>
-      </c>
-      <c r="J21">
-        <v>0.008461250535040448</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>2.265506666666667</v>
-      </c>
-      <c r="N21">
-        <v>6.79652</v>
-      </c>
-      <c r="O21">
-        <v>0.04451731876459429</v>
-      </c>
-      <c r="P21">
-        <v>0.0445173187645943</v>
-      </c>
-      <c r="Q21">
-        <v>1.084609806328889</v>
-      </c>
-      <c r="R21">
-        <v>9.76148825696</v>
-      </c>
-      <c r="S21">
-        <v>0.0003766721872154896</v>
-      </c>
-      <c r="T21">
-        <v>0.0003766721872154897</v>
+        <v>0.0002872025977700684</v>
       </c>
     </row>
   </sheetData>
